--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359414.6907284291</v>
+        <v>375786.0103676622</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556148</v>
+        <v>2629876.587221764</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839638</v>
+        <v>19997574.02179437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4848165.015971369</v>
+        <v>4902964.689084983</v>
       </c>
     </row>
     <row r="11">
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,22 +856,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,25 +899,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G5" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J13" t="n">
-        <v>27.59002526031614</v>
+        <v>27.291937497222</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="15">
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X15" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="I16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V18" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>241.0142888776591</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>108.3856149073918</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>53.49507230234266</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>124.9488863009592</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>55.57566235103583</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,7 +2460,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>3.265316057196634</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2646,7 +2646,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>77.10752967152199</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>192.7339396976112</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="32">
@@ -3026,17 +3026,17 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>27.96547247954966</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3266,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3351,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>95.03666454457461</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>103.7130553628818</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,22 +3509,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>57.7637175533174</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>91.10663889794492</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>198.2885478252618</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>201.7212010647393</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>136.2868555448613</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>67.45673899668839</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="45">
@@ -4059,19 +4059,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4174,28 +4174,28 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>19.72731862540289</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M2" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N2" t="n">
-        <v>84.14957704396423</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O2" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S2" t="n">
-        <v>85.81333917329844</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T2" t="n">
-        <v>85.81333917329844</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U2" t="n">
-        <v>85.81333917329844</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V2" t="n">
-        <v>85.81333917329844</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W2" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X2" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C3" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N3" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O3" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P3" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I4" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J4" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>77.87121125924466</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S4" t="n">
-        <v>77.87121125924466</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T4" t="n">
-        <v>77.87121125924466</v>
+        <v>13.245045875396</v>
       </c>
       <c r="U4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y4" t="n">
-        <v>77.87121125924466</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.39977328887976</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C5" t="n">
-        <v>72.39977328887976</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="D5" t="n">
-        <v>72.39977328887976</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E5" t="n">
-        <v>72.39977328887976</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F5" t="n">
-        <v>72.39977328887976</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G5" t="n">
-        <v>70.01461603622408</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H5" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L5" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M5" t="n">
-        <v>84.14957704396423</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>84.14957704396423</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O5" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W5" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X5" t="n">
-        <v>72.39977328887976</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.39977328887976</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C6" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D6" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E6" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F6" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M6" t="n">
-        <v>83.04597603355158</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N6" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P6" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W6" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X6" t="n">
-        <v>26.7539638887914</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C7" t="n">
-        <v>52.57035059274347</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D7" t="n">
-        <v>52.57035059274347</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>80.43906297690118</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W7" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X7" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C8" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D8" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E8" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F8" t="n">
-        <v>82.49138865710684</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G8" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N8" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>56.83545203625125</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M9" t="n">
-        <v>83.04597603355158</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N9" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O9" t="n">
-        <v>110.3601010412646</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S9" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T9" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U9" t="n">
-        <v>54.62267627294912</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V9" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W9" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C10" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D10" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>30.07591440498301</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.07591440498301</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C11" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D11" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E11" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F11" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G11" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H11" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L11" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M11" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N11" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O11" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S11" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T11" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U11" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V11" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W11" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X11" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>83.04597603355158</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N12" t="n">
-        <v>83.04597603355158</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O12" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P12" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T12" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U12" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V12" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W12" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X12" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y12" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C13" t="n">
-        <v>80.43906297690118</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D13" t="n">
-        <v>52.57035059274347</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E13" t="n">
-        <v>52.57035059274347</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F13" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="G13" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="H13" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I13" t="n">
-        <v>52.57035059274347</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J13" t="n">
-        <v>24.70163820858575</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="C14" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="D14" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="E14" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="F14" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G14" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H14" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I14" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L14" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M14" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N14" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O14" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>110.3601010412646</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="S14" t="n">
-        <v>110.3601010412646</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="T14" t="n">
-        <v>110.3601010412646</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="U14" t="n">
-        <v>110.3601010412646</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="V14" t="n">
-        <v>85.81333917329844</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="W14" t="n">
-        <v>57.94462678914073</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="X14" t="n">
-        <v>30.07591440498301</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N15" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P15" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S15" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T15" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U15" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V15" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W15" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.94462678914073</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C16" t="n">
-        <v>57.94462678914073</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="D16" t="n">
-        <v>57.94462678914073</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="E16" t="n">
-        <v>57.94462678914073</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="F16" t="n">
-        <v>57.94462678914073</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G16" t="n">
-        <v>30.07591440498301</v>
+        <v>13.245045875396</v>
       </c>
       <c r="H16" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R16" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S16" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T16" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U16" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V16" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W16" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X16" t="n">
-        <v>57.94462678914073</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.94462678914073</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C17" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D17" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E17" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F17" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G17" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M17" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N17" t="n">
-        <v>79.95943146291799</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O17" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M18" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N18" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S18" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T18" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U18" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.1961881840039</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="S19" t="n">
-        <v>133.1961881840039</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="T19" t="n">
-        <v>133.1961881840039</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U19" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V19" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W19" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X19" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5789,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>277.6959718698396</v>
+        <v>640.636862475431</v>
       </c>
       <c r="C21" t="n">
-        <v>277.6959718698396</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7615622085883</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5838,7 +5838,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
         <v>725.4530095217538</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>277.6959718698396</v>
+        <v>808.852199495499</v>
       </c>
     </row>
     <row r="22">
@@ -5935,13 +5935,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6069,16 +6069,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,22 +6090,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>907.9201228328222</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
         <v>19.28114311021272</v>
@@ -6172,7 +6172,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
         <v>829.5248650203655</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>960.7588564629629</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C27" t="n">
-        <v>756.2968567456824</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D27" t="n">
-        <v>607.3624470844311</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E27" t="n">
-        <v>448.1249920789756</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>301.5904341058606</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
         <v>223.7040404982626</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6406,28 +6406,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.38115216564972</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C30" t="n">
-        <v>49.38115216564972</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D30" t="n">
-        <v>49.38115216564972</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6549,16 +6549,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6582,10 +6582,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.38115216564972</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.0247885897328</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>877.0247885897328</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
         <v>829.5248650203655</v>
@@ -6640,31 +6640,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>877.0247885897328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>877.0247885897328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>877.0247885897328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>877.0247885897328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>877.0247885897328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>877.0247885897328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>877.0247885897328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>877.0247885897328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>877.0247885897328</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C32" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>194.0636530828729</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>47.52909510975783</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>47.52909510975783</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>47.52909510975783</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="34">
@@ -6883,22 +6883,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>492.4565854669654</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>868.0605246575306</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>694.6431801081994</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>492.4565854669654</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>492.4565854669654</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>492.4565854669654</v>
       </c>
       <c r="W36" t="n">
-        <v>193.7341723913397</v>
+        <v>492.4565854669654</v>
       </c>
       <c r="X36" t="n">
-        <v>193.7341723913397</v>
+        <v>492.4565854669654</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>492.4565854669654</v>
       </c>
     </row>
     <row r="37">
@@ -7123,16 +7123,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>72.23626279480629</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>804.5404366157265</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>576.3168183521157</v>
       </c>
       <c r="V39" t="n">
-        <v>395.2567788952347</v>
+        <v>341.164710120373</v>
       </c>
       <c r="W39" t="n">
-        <v>395.2567788952347</v>
+        <v>341.164710120373</v>
       </c>
       <c r="X39" t="n">
-        <v>395.2567788952347</v>
+        <v>341.164710120373</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="40">
@@ -7354,10 +7354,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
         <v>829.5248650203655</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="C41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="D41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="E41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="F41" t="n">
-        <v>18.32163497409077</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="G41" t="n">
-        <v>18.32163497409077</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="H41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>121.3366408850131</v>
+        <v>104.1029673515831</v>
       </c>
       <c r="L41" t="n">
-        <v>301.4124924696717</v>
+        <v>284.1788189362417</v>
       </c>
       <c r="M41" t="n">
-        <v>518.3881197325759</v>
+        <v>501.1544461991459</v>
       </c>
       <c r="N41" t="n">
-        <v>724.2426419398153</v>
+        <v>707.0089684063852</v>
       </c>
       <c r="O41" t="n">
-        <v>873.4375920824633</v>
+        <v>856.2039185490332</v>
       </c>
       <c r="P41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>916.0817487045384</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>916.0817487045384</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="S41" t="n">
-        <v>712.3229597502562</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="T41" t="n">
-        <v>712.3229597502562</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="U41" t="n">
-        <v>712.3229597502562</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="V41" t="n">
-        <v>480.9891848248677</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="W41" t="n">
-        <v>480.9891848248677</v>
+        <v>696.9178196240985</v>
       </c>
       <c r="X41" t="n">
-        <v>480.9891848248677</v>
+        <v>696.9178196240985</v>
       </c>
       <c r="Y41" t="n">
-        <v>249.6554098994793</v>
+        <v>458.0632807753398</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>225.1905805901504</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="C42" t="n">
-        <v>225.1905805901504</v>
+        <v>156.5807699261765</v>
       </c>
       <c r="D42" t="n">
-        <v>225.1905805901504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E42" t="n">
-        <v>225.1905805901504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F42" t="n">
-        <v>225.1905805901504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>86.45975517276591</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>143.6791950319282</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4094278363015</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>437.313479773485</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="N42" t="n">
-        <v>437.313479773485</v>
+        <v>459.7246041887357</v>
       </c>
       <c r="O42" t="n">
-        <v>664.0437125778583</v>
+        <v>693.8259377144041</v>
       </c>
       <c r="P42" t="n">
-        <v>846.6871901912091</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>687.8581304409274</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>456.5243555155389</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W42" t="n">
-        <v>225.1905805901504</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X42" t="n">
-        <v>225.1905805901504</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="Y42" t="n">
-        <v>225.1905805901504</v>
+        <v>499.2491362273716</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>45.63575998180374</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>84.82379817402592</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>128.5146488294622</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="T43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="U43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C44" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D44" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E44" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F44" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M44" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N44" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T44" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U44" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V44" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W44" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X44" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C45" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D45" t="n">
-        <v>26.7539638887914</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E45" t="n">
-        <v>26.7539638887914</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F45" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G45" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>55.73185102583861</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N45" t="n">
-        <v>83.04597603355158</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O45" t="n">
-        <v>110.3601010412646</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P45" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V45" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W45" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X45" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y45" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>50.00249887508694</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>22.13378649092923</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U46" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V46" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>257.0030888569071</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
-        <v>257.7082725202193</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>161.5644326746464</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M5" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>256.5734881866366</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O6" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>168.6093106869681</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8617,10 +8617,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>247.6798763052967</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L11" t="n">
-        <v>262.2416917349371</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>164.3167157393088</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N14" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>164.3167157393088</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9015,16 +9015,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>158.9317373436494</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O15" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,10 +9091,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9167,19 +9167,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M17" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P17" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M18" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P27" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>306.1360004134264</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>274.3079014341333</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>367.5748169560088</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>209.7138843636179</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>217.6918724729571</v>
       </c>
       <c r="O42" t="n">
-        <v>371.616681620579</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N44" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>158.9317373436494</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O45" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11461,10 +11461,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,10 +22592,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>125.5678236918632</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>342.1410754181529</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y2" t="n">
-        <v>358.6479133957374</v>
+        <v>351.3724598280644</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,16 +22674,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>147.3818768545514</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4026228674221</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22744,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>276.3414769952266</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22787,25 +22787,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9414318350059</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>182.8858643100898</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,10 +22826,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>334.8656218504798</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,19 +22863,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>137.8430201603266</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22920,16 +22920,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W6" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>181.3814015280179</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22942,13 +22942,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>136.4564102853049</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22963,10 +22963,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22993,13 +22993,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7663218936549</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>224.5476180635119</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23021,25 +23021,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>387.7127122548189</v>
+        <v>380.4372586871459</v>
       </c>
       <c r="H8" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>186.1745953211195</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23066,7 +23066,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23109,7 +23109,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>121.5145094703553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.56780889232699</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W9" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23176,16 +23176,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.2419549216212</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>138.6379206569481</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23227,10 +23227,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>201.5678386764629</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23242,7 +23242,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>391.0014432658486</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,13 +23303,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>148.4072047390293</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23388,22 +23388,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>121.0254477578962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J13" t="n">
-        <v>65.76915485635664</v>
+        <v>66.06724261945077</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.542173200479953</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>126.952928467773</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>303.4509642208484</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W14" t="n">
-        <v>321.6509434570969</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X14" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>358.6479133957374</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="15">
@@ -23619,25 +23619,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V15" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W15" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X15" t="n">
-        <v>181.471690954191</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G16" t="n">
-        <v>140.4009540981426</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>152.2496201461753</v>
       </c>
       <c r="I16" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23695,7 +23695,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23704,7 +23704,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>205.4968300677721</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23716,7 +23716,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>343.862224231856</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>347.0648912442726</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>367.2921687798708</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G17" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H17" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23780,7 +23780,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23859,16 +23859,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>186.3575051191342</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V18" t="n">
-        <v>197.9351083214361</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.854427820673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,31 +23932,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>140.9160811946027</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>49.25946554800912</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24105,16 +24105,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>152.1876234749617</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,13 +24251,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>98.1469632631722</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>116.107508752802</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,7 +24348,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24412,10 +24412,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,7 +24525,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24534,7 +24534,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>60.23598749168865</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>7.430788997210414</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24765,7 +24765,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>127.7557820643452</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24774,7 +24774,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>82.43643527161383</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24822,10 +24822,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>101.5905486845387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24880,7 +24880,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="32">
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>312.84732328326</v>
       </c>
       <c r="D32" t="n">
-        <v>152.3883551917857</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,7 +24932,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25002,10 +25002,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25014,7 +25014,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>61.43116037186542</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25154,16 +25154,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25239,13 +25239,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,22 +25278,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>5.121169608068527</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>147.9819277980378</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,22 +25397,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>354.4504772539638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25448,13 +25448,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25485,13 +25485,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,16 +25518,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>142.4010111415042</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>141.6939482514804</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25594,13 +25594,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>184.4452938382188</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,13 +25637,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>177.8556085655768</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>103.0088086554961</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>7.298868521505995</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>98.7318212940003</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>112.774975257142</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>157.217501479919</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>11.15821001977744</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25719,10 +25719,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>44.77870523980808</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>3.780149973290662</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>22.674545984785</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,10 +25834,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>347.8683628354914</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,13 +25910,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>345.4298064291826</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="45">
@@ -25947,19 +25947,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>87.93414998721002</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25998,13 +25998,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26062,28 +26062,28 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2182708028786</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>276.5454459753267</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.72361079</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.7236107903</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.7236107901</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355312.7236107902</v>
+        <v>358707.9309472633</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498720.1973742846</v>
+        <v>498720.1973742848</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498720.1973742846</v>
+        <v>498720.1973742845</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498720.1973742848</v>
+        <v>498720.1973742846</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498720.1973742848</v>
+        <v>498720.1973742846</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498720.1973742848</v>
+        <v>498720.1973742846</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490190.7971941855</v>
+        <v>495485.6875005898</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345935.8052461845</v>
+        <v>355312.7236107901</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80710.96958749178</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="C2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="D2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="E2" t="n">
-        <v>80710.96958749174</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="F2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="G2" t="n">
-        <v>82895.9595960524</v>
+        <v>83687.10374583914</v>
       </c>
       <c r="H2" t="n">
         <v>116312.4707719327</v>
@@ -26350,10 +26350,10 @@
         <v>116312.4707719327</v>
       </c>
       <c r="O2" t="n">
-        <v>114324.9676874568</v>
+        <v>115558.7720105901</v>
       </c>
       <c r="P2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.95959605239</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3287.334843612329</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>53120.56697032503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="C4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="D4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="E4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="F4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="G4" t="n">
-        <v>25455.53560360218</v>
+        <v>23996.38648677058</v>
       </c>
       <c r="H4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="K4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>35408.78987609294</v>
+        <v>33426.83623350843</v>
       </c>
       <c r="P4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>13924.44258030898</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11396.27301674864</v>
+        <v>9833.895989305034</v>
       </c>
       <c r="C6" t="n">
-        <v>20642.32505206154</v>
+        <v>23099.36358838795</v>
       </c>
       <c r="D6" t="n">
-        <v>20642.32505206154</v>
+        <v>23099.36358838794</v>
       </c>
       <c r="E6" t="n">
-        <v>54269.92505206152</v>
+        <v>56726.96358838795</v>
       </c>
       <c r="F6" t="n">
-        <v>54269.92505206155</v>
+        <v>56726.96358838795</v>
       </c>
       <c r="G6" t="n">
-        <v>51746.38942955798</v>
+        <v>55760.86162893666</v>
       </c>
       <c r="H6" t="n">
-        <v>11272.85166415447</v>
+        <v>14888.3882535883</v>
       </c>
       <c r="I6" t="n">
-        <v>65620.58967274957</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="J6" t="n">
-        <v>58401.82510353944</v>
+        <v>57652.07132010954</v>
       </c>
       <c r="K6" t="n">
-        <v>65620.58967274954</v>
+        <v>68008.95522391329</v>
       </c>
       <c r="L6" t="n">
-        <v>65620.58967274954</v>
+        <v>68008.95522391332</v>
       </c>
       <c r="M6" t="n">
-        <v>65620.58967274953</v>
+        <v>68008.95522391329</v>
       </c>
       <c r="N6" t="n">
-        <v>65620.58967274954</v>
+        <v>68008.95522391328</v>
       </c>
       <c r="O6" t="n">
-        <v>64991.73523105489</v>
+        <v>67754.80337469716</v>
       </c>
       <c r="P6" t="n">
-        <v>54269.92505206154</v>
+        <v>56726.96358838793</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N3" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L6" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N8" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L11" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35887,19 +35887,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M17" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M18" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36206,10 +36206,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>86.04614936844587</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>43.07490567886375</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>229.0204371761346</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>67.57985044159956</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>86.35016038962375</v>
       </c>
       <c r="O42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
